--- a/municipal/ENG/TransportAndStorage/Length of transport ways/Kakheti/Sighnaghi Municipality.xlsx
+++ b/municipal/ENG/TransportAndStorage/Length of transport ways/Kakheti/Sighnaghi Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\gzebi\Length of transport ways\Kakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fqavtaradze\Desktop\რეგიონული სტატისტიკა\საერთო სარგებლობის საავტომობილო გზების სიგრძე 2022\მუნიციპალიტეტები\Eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -505,20 +505,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" style="9" customWidth="1"/>
     <col min="2" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="17.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -527,7 +528,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -536,7 +537,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="4">
         <v>2017</v>
@@ -553,8 +554,11 @@
       <c r="F3" s="5">
         <v>2021</v>
       </c>
+      <c r="G3" s="5">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -573,8 +577,11 @@
       <c r="F4" s="10">
         <v>21.9</v>
       </c>
+      <c r="G4" s="10">
+        <v>21.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -593,11 +600,14 @@
       <c r="F5" s="10">
         <v>107.9</v>
       </c>
+      <c r="G5" s="10">
+        <v>107.9</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
